--- a/biology/Médecine/Panzootie/Panzootie.xlsx
+++ b/biology/Médecine/Panzootie/Panzootie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une panzootie est la contagion (épizootie) d'une maladie qui s'étend à la quasi-totalité d'une population animale d'un ou de plusieurs continent(s), voire dans certains cas de la planète. 
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme panzootie vient du grec pan (qui signifie tous) et du grec zôotês (qui signifie animal).
 </t>
@@ -542,10 +556,12 @@
           <t>Exemples de panzooties</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La grippe aviaire (virus H5N1) est un exemple de panzootie.
-Les quatre panzooties catastrophiques récurrentes du XVIIIe siècle en Europe occidentale sont revenues en cycles de 23 ans de 1711 à 1814 — et, fait notable, toujours associées à des guerres[1] (voir XVIIIe siècle - France et Angleterre).
+Les quatre panzooties catastrophiques récurrentes du XVIIIe siècle en Europe occidentale sont revenues en cycles de 23 ans de 1711 à 1814 — et, fait notable, toujours associées à des guerres (voir XVIIIe siècle - France et Angleterre).
 </t>
         </is>
       </c>
